--- a/data/VW202401.xlsx
+++ b/data/VW202401.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashley\PycharmProjects\Portfolio\NHS Virtual Wards\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhsengland-my.sharepoint.com/personal/o_ducker_england_nhs_uk/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7F3CAC-D19F-474F-BF8D-A71E6C7DBBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E65DF50-9EDE-4DBB-BEDF-78A74E07F64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1644" windowWidth="30960" windowHeight="14424" activeTab="1" xr2:uid="{7EB080DC-700B-4360-8A10-359935F4377C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7EB080DC-700B-4360-8A10-359935F4377C}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="147">
   <si>
     <t>Title:</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>ENGLAND*</t>
+  </si>
+  <si>
+    <t>* NHS Northamptonshire Integrated Care Board did not complete a successful submission this reporting period. Therefore, the publication displays an occupancy of zero for this location and the national occupancy rate figures are subsequently impacted.</t>
   </si>
   <si>
     <t>As a 'sitrep' data collection, there are likely to be some data quality issues in what is submitted. NHS England routinely monitors and reviews data quality which includes, for example: coverage of the provider return; capacity data; and occupancy levels. In taking a snapshot of virtual ward occupancy at one point within the month, this figure in particular can be considered indicative and where reported occupancy exceeds 100% - likely as a result of data quality issues – these figures have been shown in the table as '100%*'.
@@ -834,9 +837,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -874,7 +877,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -980,7 +983,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1122,7 +1125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1134,14 +1137,14 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="107.109375" customWidth="1"/>
+    <col min="3" max="3" width="107.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
@@ -1150,11 +1153,11 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
-    <row r="4" spans="2:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
@@ -1178,13 +1181,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="2:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <v>1</v>
       </c>
@@ -1193,7 +1196,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29">
         <v>2</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29">
         <v>3</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29">
         <v>4</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="29">
         <v>5</v>
       </c>
@@ -1225,15 +1228,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="126" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="127.5" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="25.2" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
         <v>13</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>15</v>
       </c>
@@ -1249,11 +1252,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
     </row>
   </sheetData>
@@ -1270,21 +1273,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C10336-053A-4BB6-BF30-1CDB4E72C4E9}">
   <dimension ref="B2:L61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="23.6640625" customWidth="1"/>
+    <col min="6" max="10" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,10 +1295,10 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,10 +1306,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1316,11 +1317,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
@@ -1337,7 +1338,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1353,12 +1354,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1377,8 +1378,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:10" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:10" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>40</v>
       </c>
@@ -1437,7 +1438,7 @@
       </c>
       <c r="L17" s="39"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>41</v>
       </c>
@@ -1467,7 +1468,7 @@
       </c>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>41</v>
       </c>
@@ -1497,7 +1498,7 @@
       </c>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>41</v>
       </c>
@@ -1527,7 +1528,7 @@
       </c>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>49</v>
       </c>
@@ -1557,7 +1558,7 @@
       </c>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>49</v>
       </c>
@@ -1587,7 +1588,7 @@
       </c>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>49</v>
       </c>
@@ -1617,7 +1618,7 @@
       </c>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>49</v>
       </c>
@@ -1647,7 +1648,7 @@
       </c>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>59</v>
       </c>
@@ -1677,7 +1678,7 @@
       </c>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>59</v>
       </c>
@@ -1707,7 +1708,7 @@
       </c>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>59</v>
       </c>
@@ -1737,7 +1738,7 @@
       </c>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>59</v>
       </c>
@@ -1767,7 +1768,7 @@
       </c>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>59</v>
       </c>
@@ -1797,7 +1798,7 @@
       </c>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>59</v>
       </c>
@@ -1827,7 +1828,7 @@
       </c>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>59</v>
       </c>
@@ -1857,7 +1858,7 @@
       </c>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>59</v>
       </c>
@@ -1887,7 +1888,7 @@
       </c>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>59</v>
       </c>
@@ -1917,7 +1918,7 @@
       </c>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>59</v>
       </c>
@@ -1947,7 +1948,7 @@
       </c>
       <c r="L34" s="37"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>59</v>
       </c>
@@ -1977,7 +1978,7 @@
       </c>
       <c r="L35" s="37"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>82</v>
       </c>
@@ -2007,7 +2008,7 @@
       </c>
       <c r="L36" s="37"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>82</v>
       </c>
@@ -2037,7 +2038,7 @@
       </c>
       <c r="L37" s="37"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
         <v>82</v>
       </c>
@@ -2067,7 +2068,7 @@
       </c>
       <c r="L38" s="37"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>82</v>
       </c>
@@ -2097,7 +2098,7 @@
       </c>
       <c r="L39" s="37"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
         <v>82</v>
       </c>
@@ -2127,7 +2128,7 @@
       </c>
       <c r="L40" s="37"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
         <v>82</v>
       </c>
@@ -2157,7 +2158,7 @@
       </c>
       <c r="L41" s="37"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>96</v>
       </c>
@@ -2187,7 +2188,7 @@
       </c>
       <c r="L42" s="37"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
         <v>96</v>
       </c>
@@ -2217,7 +2218,7 @@
       </c>
       <c r="L43" s="37"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
         <v>96</v>
       </c>
@@ -2247,7 +2248,7 @@
       </c>
       <c r="L44" s="37"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
         <v>96</v>
       </c>
@@ -2277,7 +2278,7 @@
       </c>
       <c r="L45" s="37"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
         <v>96</v>
       </c>
@@ -2307,7 +2308,7 @@
       </c>
       <c r="L46" s="37"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
         <v>108</v>
       </c>
@@ -2337,7 +2338,7 @@
       </c>
       <c r="L47" s="37"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
         <v>108</v>
       </c>
@@ -2367,7 +2368,7 @@
       </c>
       <c r="L48" s="37"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
         <v>108</v>
       </c>
@@ -2397,7 +2398,7 @@
       </c>
       <c r="L49" s="37"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
         <v>108</v>
       </c>
@@ -2427,7 +2428,7 @@
       </c>
       <c r="L50" s="37"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="13" t="s">
         <v>108</v>
       </c>
@@ -2457,7 +2458,7 @@
       </c>
       <c r="L51" s="37"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
         <v>108</v>
       </c>
@@ -2487,7 +2488,7 @@
       </c>
       <c r="L52" s="37"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
         <v>122</v>
       </c>
@@ -2517,7 +2518,7 @@
       </c>
       <c r="L53" s="37"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
         <v>122</v>
       </c>
@@ -2547,7 +2548,7 @@
       </c>
       <c r="L54" s="37"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
         <v>122</v>
       </c>
@@ -2577,7 +2578,7 @@
       </c>
       <c r="L55" s="37"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>122</v>
       </c>
@@ -2607,7 +2608,7 @@
       </c>
       <c r="L56" s="37"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>122</v>
       </c>
@@ -2637,7 +2638,7 @@
       </c>
       <c r="L57" s="37"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
         <v>122</v>
       </c>
@@ -2667,7 +2668,7 @@
       </c>
       <c r="L58" s="37"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="17" t="s">
         <v>122</v>
       </c>
@@ -2697,7 +2698,10 @@
       </c>
       <c r="L59" s="37"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
       <c r="G61" s="37"/>
     </row>
   </sheetData>
@@ -2711,15 +2715,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="d766efa6-5b16-4c5c-b71a-fb5b190d6b86">
@@ -2735,6 +2730,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2987,14 +2991,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076152FF-2814-4806-AEB3-635692626811}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0803A223-E691-470D-BA3D-E8CD4015A36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3007,6 +3003,14 @@
     <ds:schemaRef ds:uri="d766efa6-5b16-4c5c-b71a-fb5b190d6b86"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076152FF-2814-4806-AEB3-635692626811}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
